--- a/Tester/Manual_Test/FILE/Test_case/Khung_Testcase_MSB/BPMPD_Testcase_SIT_RM_dong_y_CA_dong_y.xlsx
+++ b/Tester/Manual_Test/FILE/Test_case/Khung_Testcase_MSB/BPMPD_Testcase_SIT_RM_dong_y_CA_dong_y.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Duc Tien\Desktop\EXP_TESTER\Tester\Manual_Test\FILE\Test_case\Khung_Testcase_Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Duc Tien\Desktop\EXP_TESTER\Tester\Manual_Test\FILE\Test_case\Khung_Testcase_MSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB101CD3-0696-44C9-BBD4-D5F5FF7524F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A10CEA3-6D60-4D95-8714-E479B72D3983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="161">
   <si>
     <t>Test Report</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Approver:</t>
-  </si>
-  <si>
-    <t>Lê Trường Giang (GiangLT7)</t>
   </si>
   <si>
     <t>Created Date:</t>
@@ -299,9 +296,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Test case Id</t>
-  </si>
-  <si>
     <t>Test case Title</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
   </si>
   <si>
     <t>RM đồng ý - CA đồng ý</t>
-  </si>
-  <si>
-    <t>UI/UX Testing</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra tổng thể UI/UX của màn hình danh sách các Yêu cầu đã hoàn thành    </t>
@@ -619,6 +610,15 @@
   </si>
   <si>
     <t>1. Hệ thống  &gt;&gt; màn hình popup Nhập ý kiến</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2285,6 +2285,12 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="69" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="32" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2292,6 +2298,10 @@
     <xf numFmtId="164" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2300,7 +2310,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2316,29 +2325,45 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2346,39 +2371,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="35" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="11" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="12" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2390,34 +2405,11 @@
     <xf numFmtId="164" fontId="33" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2711,18 +2703,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
-    <col min="9" max="26" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" customWidth="1"/>
+    <col min="3" max="4" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="31.7265625" customWidth="1"/>
+    <col min="9" max="26" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
@@ -2755,15 +2749,15 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2783,15 +2777,15 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2867,15 +2861,15 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2893,17 +2887,17 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+    <row r="7" spans="1:26" ht="15.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2921,17 +2915,17 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="35" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="128"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="130"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="2"/>
@@ -2953,15 +2947,15 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="138"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2981,14 +2975,14 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="128"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="9"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3010,10 +3004,10 @@
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="11" t="s">
         <v>2</v>
       </c>
@@ -3021,9 +3015,7 @@
       <c r="G11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="2"/>
@@ -3048,10 +3040,10 @@
       <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
       <c r="G12" s="13" t="s">
@@ -3082,10 +3074,10 @@
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="128"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
@@ -3114,10 +3106,10 @@
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="128"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="11" t="s">
         <v>11</v>
       </c>
@@ -3125,9 +3117,7 @@
       <c r="G14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="2"/>
@@ -3150,19 +3140,17 @@
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="129" t="s">
-        <v>14</v>
+      <c r="C15" s="131" t="s">
+        <v>13</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="11">
-        <v>44927</v>
-      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
@@ -3186,14 +3174,14 @@
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="129" t="s">
-        <v>16</v>
+      <c r="C16" s="131" t="s">
+        <v>15</v>
       </c>
-      <c r="D16" s="128"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="14"/>
@@ -30793,21 +30781,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="26" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="26" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
@@ -30865,18 +30853,18 @@
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1">
       <c r="A3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="145" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="147"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
@@ -30902,15 +30890,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="C4" s="148" t="s">
-        <v>22</v>
+      <c r="C4" s="150" t="s">
+        <v>21</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="156"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -30936,15 +30924,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="150"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="156"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -30970,15 +30958,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="148" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="156"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -31004,15 +30992,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -31063,21 +31051,21 @@
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1">
       <c r="A9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="D9" s="148"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="31" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -31102,16 +31090,16 @@
     <row r="10" spans="1:26" ht="12" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="148" t="s">
-        <v>34</v>
+      <c r="C10" s="150" t="s">
+        <v>33</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="154"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
       <c r="F10" s="37">
         <v>1</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -58881,11 +58869,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
@@ -58900,7 +58888,7 @@
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="42"/>
       <c r="B2" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -58928,78 +58916,78 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="45" t="s">
+      <c r="E5" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="F5" s="154"/>
+      <c r="G5" s="165"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="164"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="B6" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="160"/>
+      <c r="D6" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="162" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="167"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="162"/>
+      <c r="G7" s="163"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="168" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="C8" s="160"/>
+      <c r="D8" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="47" t="s">
+      <c r="E8" s="161">
+        <v>44936</v>
+      </c>
+      <c r="F8" s="162"/>
+      <c r="G8" s="163"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="165">
-        <v>44936</v>
-      </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="B9" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="157" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="156"/>
+      <c r="C9" s="160"/>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49"/>
@@ -59007,22 +58995,22 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
       <c r="A10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="169">
+        <v>44927</v>
+      </c>
+      <c r="C10" s="170"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A11" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="158">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="160" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="161"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -59031,10 +59019,10 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
@@ -59044,7 +59032,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="58">
         <v>44936</v>
@@ -59057,30 +59045,30 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="C14" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="D14" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="E14" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="F14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="G14" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="67">
         <v>0</v>
@@ -59101,7 +59089,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
@@ -59112,7 +59100,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
@@ -59123,7 +59111,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
@@ -59137,7 +59125,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -59151,7 +59139,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="73"/>
@@ -59162,7 +59150,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="86"/>
@@ -59173,7 +59161,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="85"/>
       <c r="C22" s="86"/>
@@ -60162,6 +60150,8 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E5:G5"/>
@@ -60172,8 +60162,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -60185,28 +60173,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="186" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="186" customWidth="1"/>
-    <col min="9" max="25" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="48.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="128" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="128" customWidth="1"/>
+    <col min="9" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -60221,7 +60209,7 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -60250,16 +60238,16 @@
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="A4" s="94"/>
       <c r="B4" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="D4" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="95" t="s">
-        <v>74</v>
-      </c>
       <c r="E4" s="95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="90"/>
       <c r="G4" s="93"/>
@@ -60295,18 +60283,18 @@
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="99">
-        <f>COUNTIFS(I15:I199, "Passed",H15:H199,"High")</f>
+        <f>COUNTIFS(I15:I200, "Passed",H15:H200,"High")</f>
         <v>0</v>
       </c>
       <c r="C6" s="99">
-        <f>COUNTIFS(I15:I199, "Passed",H15:H199,"Medium")</f>
+        <f>COUNTIFS(I15:I200, "Passed",H15:H200,"Medium")</f>
         <v>0</v>
       </c>
       <c r="D6" s="99">
-        <f>COUNTIFS(I15:I199, "Passed",H15:H199,"Low")</f>
+        <f>COUNTIFS(I15:I200, "Passed",H15:H200,"Low")</f>
         <v>0</v>
       </c>
       <c r="E6" s="99">
@@ -60322,18 +60310,18 @@
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
       <c r="A7" s="98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="99">
-        <f>COUNTIFS(I15:I199, "Failed",H15:H199,"High")</f>
+        <f>COUNTIFS(I15:I200, "Failed",H15:H200,"High")</f>
         <v>0</v>
       </c>
       <c r="C7" s="99">
-        <f>COUNTIFS(I15:I199, "Failed",H15:H199,"Medium")</f>
+        <f>COUNTIFS(I15:I200, "Failed",H15:H200,"Medium")</f>
         <v>0</v>
       </c>
       <c r="D7" s="99">
-        <f>COUNTIFS(I15:I199, "Failed",H15:H199,"Low")</f>
+        <f>COUNTIFS(I15:I200, "Failed",H15:H200,"Low")</f>
         <v>0</v>
       </c>
       <c r="E7" s="99">
@@ -60349,18 +60337,18 @@
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
       <c r="A8" s="98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="99">
-        <f>COUNTIFS(I15:I199, "Untested",H15:H199,"High")</f>
+        <f>COUNTIFS(I15:I200, "Untested",H15:H200,"High")</f>
         <v>0</v>
       </c>
       <c r="C8" s="99">
-        <f>COUNTIFS(I15:I199, "Untested",H15:H199,"Medium")</f>
+        <f>COUNTIFS(I15:I200, "Untested",H15:H200,"Medium")</f>
         <v>0</v>
       </c>
       <c r="D8" s="99">
-        <f>COUNTIFS(I15:I199, "Untested",H15:H199,"Low")</f>
+        <f>COUNTIFS(I15:I200, "Untested",H15:H200,"Low")</f>
         <v>0</v>
       </c>
       <c r="E8" s="99">
@@ -60376,18 +60364,18 @@
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="99">
-        <f>COUNTIFS(I15:I202, "Accepted",H15:H202,"High")</f>
+        <f>COUNTIFS(I15:I203, "Accepted",H15:H203,"High")</f>
         <v>0</v>
       </c>
       <c r="C9" s="99">
-        <f>COUNTIFS(I15:I199, "Accepted",H15:H199,"Medium")</f>
+        <f>COUNTIFS(I15:I200, "Accepted",H15:H200,"Medium")</f>
         <v>0</v>
       </c>
       <c r="D9" s="99">
-        <f>COUNTIFS(I15:I199, "Accepted",H15:H199,"Low")</f>
+        <f>COUNTIFS(I15:I200, "Accepted",H15:H200,"Low")</f>
         <v>0</v>
       </c>
       <c r="E9" s="99">
@@ -60403,18 +60391,18 @@
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="99">
-        <f>COUNTIFS(I15:I203, "N/A",H15:H203,"High")</f>
+        <f>COUNTIFS(I15:I204, "N/A",H15:H204,"High")</f>
         <v>0</v>
       </c>
       <c r="C10" s="99">
-        <f>COUNTIFS(I15:I199, "N/A",H15:H199,"Medium")</f>
+        <f>COUNTIFS(I15:I200, "N/A",H15:H200,"Medium")</f>
         <v>0</v>
       </c>
       <c r="D10" s="101">
-        <f>COUNTIFS(I15:I199, "N/A",H15:H199,"Low")</f>
+        <f>COUNTIFS(I15:I200, "N/A",H15:H200,"Low")</f>
         <v>0</v>
       </c>
       <c r="E10" s="99">
@@ -60441,100 +60429,96 @@
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1">
       <c r="A12" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="D12" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="E12" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="F12" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="G12" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="I12" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="105" t="s">
+      <c r="K12" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="105" t="s">
-        <v>56</v>
+    </row>
+    <row r="13" spans="1:11" ht="24.5" customHeight="1">
+      <c r="A13" s="107" t="str">
+        <f>IF(F13&lt;&gt;"","[KQ_"&amp;TEXT(ROW()-14-COUNTBLANK($F13:F$19),"###")&amp;"]","")</f>
+        <v/>
       </c>
-      <c r="J12" s="106" t="s">
+      <c r="B13" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="106" t="s">
-        <v>83</v>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="174"/>
+    </row>
+    <row r="14" spans="1:11" ht="31" customHeight="1">
+      <c r="B14" s="175" t="s">
+        <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A13" s="107" t="str">
-        <f t="shared" ref="A13:A14" si="2">IF(F13&lt;&gt;"","[KQ_"&amp;TEXT(ROW()-14-COUNTBLANK($F13:F$14),"###")&amp;"]","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="169" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-    </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A14" s="107" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B14" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="174"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="107" t="str">
-        <f t="shared" ref="A15:A58" si="3">IF(F15&lt;&gt;"","[KQ_"&amp;TEXT(ROW()-14-COUNTBLANK($F$15:F15),"###")&amp;"]","")</f>
+        <f t="shared" ref="A15:A59" si="2">IF(F15&lt;&gt;"","[KQ_"&amp;TEXT(ROW()-14-COUNTBLANK($F$15:F15),"###")&amp;"]","")</f>
         <v>[KQ_1]</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
-      <c r="G15" s="182" t="s">
-        <v>50</v>
+      <c r="G15" s="127" t="s">
+        <v>49</v>
       </c>
-      <c r="H15" s="182" t="s">
-        <v>74</v>
+      <c r="H15" s="127" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="113"/>
       <c r="J15" s="114"/>
@@ -60542,27 +60526,27 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>[KQ_2]</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="117"/>
       <c r="F16" s="118" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="119"/>
       <c r="J16" s="114"/>
@@ -60570,27 +60554,27 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>[KQ_3]</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="117"/>
       <c r="F17" s="116" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G17" s="125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="119"/>
       <c r="J17" s="114"/>
@@ -60598,27 +60582,27 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>[KQ_4]</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" s="117"/>
       <c r="F18" s="116" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G18" s="125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="119"/>
       <c r="J18" s="114"/>
@@ -60626,871 +60610,861 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A19" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F19&lt;&gt;"","[KQ_"&amp;TEXT(ROW()-14-COUNTBLANK($F$15:F19),"###")&amp;"]","")</f>
         <v>[KQ_5]</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="116" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" s="117"/>
       <c r="F19" s="116" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G19" s="125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="119"/>
       <c r="J19" s="114"/>
       <c r="K19" s="116"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:11" ht="34.5" customHeight="1">
       <c r="A20" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F14&lt;&gt;"","[KQ_"&amp;TEXT(ROW()-14-COUNTBLANK($F14:F$14),"###")&amp;"]","")</f>
         <v/>
       </c>
       <c r="B20" s="175" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="C20" s="176"/>
       <c r="D20" s="176"/>
       <c r="E20" s="176"/>
       <c r="F20" s="176"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
       <c r="I20" s="176"/>
       <c r="J20" s="176"/>
-      <c r="K20" s="177"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+      <c r="K20" s="178"/>
+    </row>
+    <row r="21" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A21" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B21" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="182"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A22" s="107" t="str">
+        <f t="shared" si="2"/>
         <v>[KQ_6]</v>
       </c>
-      <c r="B21" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="107"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A22" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_7]</v>
-      </c>
       <c r="B22" s="109" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E22" s="120"/>
-      <c r="F22" s="109" t="s">
-        <v>108</v>
+      <c r="F22" s="121" t="s">
+        <v>102</v>
       </c>
       <c r="G22" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="122"/>
       <c r="J22" s="123"/>
       <c r="K22" s="107"/>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="23" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A23" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_8]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_7]</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E23" s="120"/>
-      <c r="F23" s="121" t="s">
-        <v>111</v>
+      <c r="F23" s="109" t="s">
+        <v>105</v>
       </c>
       <c r="G23" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="122"/>
       <c r="J23" s="123"/>
       <c r="K23" s="107"/>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="24" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A24" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_9]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_8]</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E24" s="120"/>
       <c r="F24" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="122"/>
       <c r="J24" s="123"/>
       <c r="K24" s="107"/>
     </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="25" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A25" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_10]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_9]</v>
       </c>
-      <c r="B25" s="178" t="s">
-        <v>114</v>
+      <c r="B25" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
-      <c r="D25" s="121" t="s">
-        <v>115</v>
+      <c r="D25" s="109" t="s">
+        <v>110</v>
       </c>
       <c r="E25" s="120"/>
       <c r="F25" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G25" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="122"/>
       <c r="J25" s="123"/>
       <c r="K25" s="107"/>
     </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="26" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A26" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_11]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_10]</v>
       </c>
-      <c r="B26" s="179"/>
+      <c r="B26" s="183" t="s">
+        <v>111</v>
+      </c>
       <c r="C26" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26" s="120"/>
       <c r="F26" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G26" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="122"/>
       <c r="J26" s="123"/>
       <c r="K26" s="107"/>
     </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A27" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>[KQ_11]</v>
+      </c>
+      <c r="B27" s="184"/>
+      <c r="C27" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="107"/>
+    </row>
+    <row r="28" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A28" s="107" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B27" s="175" t="s">
-        <v>117</v>
+      <c r="B28" s="179" t="s">
+        <v>114</v>
       </c>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="177"/>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A28" s="107" t="str">
-        <f t="shared" si="3"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="182"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A29" s="107" t="str">
+        <f t="shared" si="2"/>
         <v>[KQ_12]</v>
       </c>
-      <c r="B28" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="107"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A29" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_13]</v>
-      </c>
       <c r="B29" s="109" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E29" s="120"/>
-      <c r="F29" s="109" t="s">
-        <v>108</v>
+      <c r="F29" s="121" t="s">
+        <v>102</v>
       </c>
       <c r="G29" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="122"/>
       <c r="J29" s="123"/>
       <c r="K29" s="107"/>
     </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="30" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A30" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_14]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_13]</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C30" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E30" s="120"/>
-      <c r="F30" s="121" t="s">
-        <v>111</v>
+      <c r="F30" s="109" t="s">
+        <v>105</v>
       </c>
       <c r="G30" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" s="122"/>
       <c r="J30" s="123"/>
       <c r="K30" s="107"/>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="31" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A31" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_15]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_14]</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E31" s="120"/>
       <c r="F31" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G31" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="122"/>
       <c r="J31" s="123"/>
       <c r="K31" s="107"/>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="32" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A32" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_16]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_15]</v>
       </c>
-      <c r="B32" s="178" t="s">
-        <v>114</v>
+      <c r="B32" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
-      <c r="D32" s="121" t="s">
-        <v>118</v>
+      <c r="D32" s="109" t="s">
+        <v>110</v>
       </c>
       <c r="E32" s="120"/>
       <c r="F32" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G32" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="122"/>
       <c r="J32" s="123"/>
       <c r="K32" s="107"/>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="33" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A33" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_17]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_16]</v>
       </c>
-      <c r="B33" s="179"/>
+      <c r="B33" s="183" t="s">
+        <v>111</v>
+      </c>
       <c r="C33" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E33" s="120"/>
       <c r="F33" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G33" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="122"/>
       <c r="J33" s="123"/>
       <c r="K33" s="107"/>
     </row>
-    <row r="34" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A34" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>[KQ_17]</v>
+      </c>
+      <c r="B34" s="184"/>
+      <c r="C34" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="120"/>
+      <c r="F34" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="107"/>
+    </row>
+    <row r="35" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A35" s="107" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B34" s="175" t="s">
-        <v>120</v>
+      <c r="B35" s="179" t="s">
+        <v>117</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="177"/>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A35" s="107" t="str">
-        <f t="shared" si="3"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="182"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A36" s="107" t="str">
+        <f t="shared" si="2"/>
         <v>[KQ_18]</v>
       </c>
-      <c r="B35" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="122"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="107"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A36" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_19]</v>
-      </c>
       <c r="B36" s="109" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C36" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E36" s="120"/>
-      <c r="F36" s="109" t="s">
-        <v>108</v>
+      <c r="F36" s="121" t="s">
+        <v>102</v>
       </c>
       <c r="G36" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
       <c r="K36" s="107"/>
     </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="37" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A37" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_20]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_19]</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="109" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E37" s="120"/>
-      <c r="F37" s="121" t="s">
-        <v>111</v>
+      <c r="F37" s="109" t="s">
+        <v>105</v>
       </c>
       <c r="G37" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="122"/>
       <c r="J37" s="123"/>
       <c r="K37" s="107"/>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="38" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A38" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_21]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_20]</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C38" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" s="109" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E38" s="120"/>
       <c r="F38" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G38" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="122"/>
       <c r="J38" s="123"/>
       <c r="K38" s="107"/>
     </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="39" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A39" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_22]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_21]</v>
       </c>
-      <c r="B39" s="178" t="s">
-        <v>114</v>
+      <c r="B39" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
-      <c r="D39" s="121" t="s">
-        <v>118</v>
+      <c r="D39" s="109" t="s">
+        <v>110</v>
       </c>
       <c r="E39" s="120"/>
       <c r="F39" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G39" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" s="122"/>
       <c r="J39" s="123"/>
       <c r="K39" s="107"/>
     </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="40" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A40" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_23]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_22]</v>
       </c>
-      <c r="B40" s="179"/>
+      <c r="B40" s="183" t="s">
+        <v>111</v>
+      </c>
       <c r="C40" s="109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="121" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E40" s="120"/>
       <c r="F40" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G40" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40" s="122"/>
       <c r="J40" s="123"/>
       <c r="K40" s="107"/>
     </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
+    <row r="41" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A41" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_24]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_23]</v>
       </c>
-      <c r="B41" s="124" t="s">
-        <v>121</v>
+      <c r="B41" s="184"/>
+      <c r="C41" s="109" t="s">
+        <v>84</v>
       </c>
-      <c r="C41" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>122</v>
+      <c r="D41" s="121" t="s">
+        <v>116</v>
       </c>
       <c r="E41" s="120"/>
-      <c r="F41" s="109" t="s">
-        <v>123</v>
+      <c r="F41" s="121" t="s">
+        <v>108</v>
       </c>
-      <c r="G41" s="125" t="s">
-        <v>50</v>
+      <c r="G41" s="122" t="s">
+        <v>49</v>
       </c>
       <c r="H41" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I41" s="122"/>
       <c r="J41" s="123"/>
       <c r="K41" s="107"/>
     </row>
-    <row r="42" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A42" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>[KQ_24]</v>
+      </c>
+      <c r="B42" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="120"/>
+      <c r="F42" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="122"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="107"/>
+    </row>
+    <row r="43" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A43" s="107" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B42" s="175" t="s">
+      <c r="B43" s="179" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="182"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A44" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>[KQ_25]</v>
+      </c>
+      <c r="B44" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="122"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="107"/>
+    </row>
+    <row r="45" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A45" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B45" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="178"/>
+    </row>
+    <row r="46" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A46" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B46" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="177"/>
-    </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A43" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_25]</v>
+      <c r="C46" s="176"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="178"/>
+    </row>
+    <row r="47" spans="1:11" ht="97.5" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A47" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>[KQ_26]</v>
       </c>
-      <c r="B43" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121" t="s">
+      <c r="B47" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="G43" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="122"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="107"/>
-    </row>
-    <row r="44" spans="1:11" ht="34.5" customHeight="1" collapsed="1">
-      <c r="A44" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B44" s="172" t="s">
+      <c r="C47" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="184"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="174"/>
-    </row>
-    <row r="45" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B45" s="181" t="s">
+      <c r="D47" s="109" t="s">
         <v>127</v>
-      </c>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="174"/>
-    </row>
-    <row r="46" spans="1:11" ht="97.5" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A46" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_26]</v>
-      </c>
-      <c r="B46" s="180" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="126" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="120"/>
-      <c r="F46" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="122"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="107"/>
-    </row>
-    <row r="47" spans="1:11" ht="108" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A47" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_27]</v>
-      </c>
-      <c r="B47" s="179"/>
-      <c r="C47" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="109" t="s">
-        <v>133</v>
       </c>
       <c r="E47" s="120"/>
       <c r="F47" s="109" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G47" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="122"/>
       <c r="J47" s="123"/>
       <c r="K47" s="107"/>
     </row>
-    <row r="48" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="48" spans="1:11" ht="108" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A48" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_28]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_27]</v>
       </c>
-      <c r="B48" s="180" t="s">
-        <v>135</v>
-      </c>
+      <c r="B48" s="184"/>
       <c r="C48" s="126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E48" s="120"/>
       <c r="F48" s="109" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G48" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I48" s="122"/>
       <c r="J48" s="123"/>
       <c r="K48" s="107"/>
     </row>
-    <row r="49" spans="1:11" ht="97.5" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="49" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A49" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_29]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_28]</v>
       </c>
-      <c r="B49" s="179"/>
-      <c r="C49" s="126" t="s">
+      <c r="B49" s="185" t="s">
         <v>132</v>
       </c>
+      <c r="C49" s="126" t="s">
+        <v>129</v>
+      </c>
       <c r="D49" s="109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E49" s="120"/>
       <c r="F49" s="109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G49" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I49" s="122"/>
       <c r="J49" s="123"/>
       <c r="K49" s="107"/>
     </row>
-    <row r="50" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:11" ht="97.5" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A50" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>[KQ_29]</v>
+      </c>
+      <c r="B50" s="184"/>
+      <c r="C50" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="120"/>
+      <c r="F50" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="122"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="107"/>
+    </row>
+    <row r="51" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A51" s="107" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B50" s="181" t="s">
+      <c r="B51" s="186" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="176"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="178"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A52" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>[KQ_30]</v>
+      </c>
+      <c r="B52" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="173"/>
-      <c r="D50" s="173"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="184"/>
-      <c r="H50" s="184"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="173"/>
-      <c r="K50" s="174"/>
-    </row>
-    <row r="51" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A51" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_30]</v>
-      </c>
-      <c r="B51" s="109" t="s">
+      <c r="E52" s="120"/>
+      <c r="F52" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="120"/>
-      <c r="F51" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="122"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="107"/>
-    </row>
-    <row r="52" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A52" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_31]</v>
-      </c>
-      <c r="B52" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" s="120"/>
-      <c r="F52" s="116" t="s">
-        <v>147</v>
-      </c>
       <c r="G52" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52" s="122"/>
       <c r="J52" s="123"/>
@@ -61498,97 +61472,99 @@
     </row>
     <row r="53" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A53" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_32]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_31]</v>
       </c>
-      <c r="B53" s="179"/>
-      <c r="C53" s="126" t="s">
+      <c r="B53" s="185" t="s">
         <v>142</v>
       </c>
+      <c r="C53" s="126" t="s">
+        <v>139</v>
+      </c>
       <c r="D53" s="109" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E53" s="120"/>
-      <c r="F53" s="109" t="s">
-        <v>149</v>
+      <c r="F53" s="116" t="s">
+        <v>144</v>
       </c>
       <c r="G53" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I53" s="122"/>
       <c r="J53" s="123"/>
       <c r="K53" s="107"/>
     </row>
-    <row r="54" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A54" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>[KQ_32]</v>
+      </c>
+      <c r="B54" s="184"/>
+      <c r="C54" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="120"/>
+      <c r="F54" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="122"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="107"/>
+    </row>
+    <row r="55" spans="1:11" ht="23" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A55" s="107" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B54" s="181" t="s">
-        <v>150</v>
+      <c r="B55" s="186" t="s">
+        <v>147</v>
       </c>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="174"/>
-    </row>
-    <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A55" s="107" t="str">
-        <f t="shared" si="3"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="178"/>
+    </row>
+    <row r="56" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A56" s="107" t="str">
+        <f t="shared" si="2"/>
         <v>[KQ_33]</v>
       </c>
-      <c r="B55" s="180" t="s">
-        <v>151</v>
+      <c r="B56" s="185" t="s">
+        <v>148</v>
       </c>
-      <c r="C55" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="120"/>
-      <c r="F55" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="122"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="107"/>
-    </row>
-    <row r="56" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A56" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_34]</v>
-      </c>
-      <c r="B56" s="179"/>
       <c r="C56" s="126" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E56" s="120"/>
       <c r="F56" s="109" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G56" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I56" s="122"/>
       <c r="J56" s="123"/>
@@ -61596,27 +61572,25 @@
     </row>
     <row r="57" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A57" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_35]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_34]</v>
       </c>
-      <c r="B57" s="180" t="s">
-        <v>156</v>
-      </c>
+      <c r="B57" s="184"/>
       <c r="C57" s="126" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D57" s="109" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E57" s="120"/>
       <c r="F57" s="109" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="G57" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H57" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" s="122"/>
       <c r="J57" s="123"/>
@@ -61624,31 +61598,58 @@
     </row>
     <row r="58" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A58" s="107" t="str">
-        <f t="shared" si="3"/>
-        <v>[KQ_36]</v>
+        <f t="shared" si="2"/>
+        <v>[KQ_35]</v>
       </c>
-      <c r="B58" s="179"/>
+      <c r="B58" s="185" t="s">
+        <v>153</v>
+      </c>
       <c r="C58" s="126" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D58" s="109" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E58" s="120"/>
       <c r="F58" s="109" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G58" s="122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H58" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I58" s="122"/>
       <c r="J58" s="123"/>
       <c r="K58" s="107"/>
     </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:11" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A59" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>[KQ_36]</v>
+      </c>
+      <c r="B59" s="184"/>
+      <c r="C59" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="120"/>
+      <c r="F59" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="122"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="107"/>
+    </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="61" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="62" spans="1:11" ht="14.25" customHeight="1"/>
@@ -62590,90 +62591,87 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B44:K44"/>
+  <mergeCells count="19">
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:K43"/>
     <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:K28"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:K27"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:I12 I41 I51:I53">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="I11:I12 I42 I52:I54 I15:I19">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I29">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I28))))</formula>
+  <conditionalFormatting sqref="I29:I30">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I19">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I15))))</formula>
+  <conditionalFormatting sqref="I22:I23">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I22">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I21))))</formula>
+  <conditionalFormatting sqref="I24:I27">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I26">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I23))))</formula>
+  <conditionalFormatting sqref="I31:I34">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I33">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I30))))</formula>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I36">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I35))))</formula>
+  <conditionalFormatting sqref="I38:I41">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I40">
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I37))))</formula>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I44))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I43))))</formula>
+  <conditionalFormatting sqref="I47:I50">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I49">
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I58">
+  <conditionalFormatting sqref="I56:I59">
     <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I55))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I56))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G15:G19 G21:G26 G28:G33 G35:G41 G43 G46:G49 G51:G53 G55:G58" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G22:G27 G29:G34 G36:G42 G44 G47:G50 G52:G54 G56:G59 G15:G19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Dev,Test,UAT,Pre-Production,Production"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I15:I19 I21:I26 I28:I33 I35:I41 I43 I46:I49 I51:I53 I55:I58" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I22:I27 I29:I34 I36:I42 I44 I47:I50 I52:I54 I56:I59 I15:I19" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Passed,Failed,Accepted,N/A,Untested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H19 H21:H26 H28:H33 H35:H41 H43 H46:H49 H51:H53 H55:H58" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H22:H27 H29:H34 H36:H42 H44 H47:H50 H52:H54 H56:H59 H15:H19" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
